--- a/Accounts.xlsx
+++ b/Accounts.xlsx
@@ -22,10 +22,10 @@
     <t>TRUCK NO</t>
   </si>
   <si>
-    <t>Accepted Qty</t>
-  </si>
-  <si>
-    <t>Received Qty</t>
+    <t>ACC.</t>
+  </si>
+  <si>
+    <t>REC.</t>
   </si>
   <si>
     <t>PRICE</t>
@@ -40,7 +40,7 @@
     <t>GRAND TOTAL</t>
   </si>
   <si>
-    <t>FRT</t>
+    <t>FRT.</t>
   </si>
   <si>
     <t>T PAID</t>
